--- a/Unit01/HW1_1.xlsx
+++ b/Unit01/HW1_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\04616598\BSync\Box Sync\Documents\Data Sciance\msds_6373TimeSeries\MSDS-6373-Time-Series-master1\Unit 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\04616598\BSync\Box Sync\Documents\Data Sciance\msds_6373TimeSeries\MSDS6373\Unit01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C5D17F-FBE7-4798-A45C-3DE9F67B5FC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1703F4B2-B653-4A31-9E23-D762991CB276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33580" windowHeight="14240" xr2:uid="{A3C0B4B5-DA79-CB4B-8A17-3F5C18A9EF7B}"/>
+    <workbookView xWindow="14100" yWindow="1940" windowWidth="21190" windowHeight="15460" xr2:uid="{A3C0B4B5-DA79-CB4B-8A17-3F5C18A9EF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -404,7 +410,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -536,6 +542,9 @@
       <c r="B9">
         <v>80</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -551,9 +560,6 @@
       <c r="D10">
         <f>SUM(D2:D8)</f>
         <v>117.9375</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
